--- a/anova_scan/ER_ANOVA_scan_size_300ms.xlsx
+++ b/anova_scan/ER_ANOVA_scan_size_300ms.xlsx
@@ -540,7 +540,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -791,11 +791,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Channel.C_022</t>
+          <t>Channel.C_014</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.007686725937575454</v>
+        <v>0.02372484669324095</v>
       </c>
     </row>
     <row r="15">
@@ -817,11 +817,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Channel.C_014</t>
+          <t>Channel.C_022</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.02372484669324095</v>
+        <v>0.007686725937575454</v>
       </c>
     </row>
     <row r="16">
@@ -869,11 +869,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Channel.C_013</t>
+          <t>Channel.C_029</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.02669134658117071</v>
+        <v>0.01000860233155817</v>
       </c>
     </row>
     <row r="18">
@@ -895,11 +895,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Channel.C_029</t>
+          <t>Channel.C_013</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.01000860233155817</v>
+        <v>0.02669134658117071</v>
       </c>
     </row>
     <row r="19">
@@ -956,7 +956,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1337,11 +1337,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Channel.C_028</t>
+          <t>Channel.C_016</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.02784149342334809</v>
+        <v>0.009260659034856518</v>
       </c>
     </row>
     <row r="36">
@@ -1363,11 +1363,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Channel.C_015</t>
+          <t>Channel.C_028</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.01069321133830274</v>
+        <v>0.02784149342334809</v>
       </c>
     </row>
     <row r="37">
@@ -1389,11 +1389,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Channel.C_016</t>
+          <t>Channel.C_015</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.009260659034856518</v>
+        <v>0.01069321133830274</v>
       </c>
     </row>
     <row r="38">
@@ -1762,7 +1762,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Channel.C_000</t>
+          <t>Channel.C_001</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.02288032090232746</v>
+        <v>0.04194394887942973</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1805,11 +1805,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Channel.C_001</t>
+          <t>Channel.C_000</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.04194394887942973</v>
+        <v>0.02288032090232746</v>
       </c>
     </row>
     <row r="54">
@@ -1935,11 +1935,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Channel.C_000</t>
+          <t>Channel.C_008</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.008246306677735236</v>
+        <v>0.008398385942039423</v>
       </c>
     </row>
     <row r="59">
@@ -1961,16 +1961,16 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Channel.C_008</t>
+          <t>Channel.C_000</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.008398385942039423</v>
+        <v>0.008246306677735236</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
